--- a/doc/04_機能一覧_A型.xlsx
+++ b/doc/04_機能一覧_A型.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\PlusDojo6月作成ドキュメントテンプレート\PlusDojo6月作成ドキュメントテンプレート\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC7A34AE-7739-4372-A5A7-F44EBD38CA66}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1FD7E18-C648-48CA-B347-FA321C8A57EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="57">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -246,41 +246,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>プロフィール</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>登録</t>
-    <rPh sb="0" eb="2">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>編集・削除</t>
-    <rPh sb="0" eb="2">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>履歴</t>
-    <rPh sb="0" eb="2">
-      <t>リレキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>一覧</t>
-    <rPh sb="0" eb="2">
-      <t>イチラン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>天気、気温取得</t>
     <rPh sb="0" eb="2">
       <t>テンキ</t>
@@ -308,63 +273,264 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>その日の気温に合った服の種類を選択する</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>決定された服の種類を画面に表示する</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>IDとパスワードとプロフィール内容を設定する</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>IDとパスワードでログインする</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ログアウトする</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユーザー名(NN)、性別,暑がり寒がり,居住地を確認・変更できる。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>自分の持っている服をデータベースに登録する</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>登録済みのデータ内容を編集または削除する</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>過去に自身が来た服のコーディネートデータを保存する</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>選択された種類ごとに所持服を一覧で表示する</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>当日の天気と気温を取得し、その情報を画面に表示する</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>一日に自身が着ていく服を登録する</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>登録したコーディネートの表示と削除を行う</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Java</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>JavaScript</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>松倉</t>
+    <rPh sb="0" eb="2">
+      <t>マツクラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー情報表示</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー情報編集</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IDとパスワードとプロフィール内容をデータベースに登録</t>
+    <rPh sb="25" eb="27">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>編集された新しいユーザー情報をデータベースに再登録</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="22" eb="25">
+      <t>サイトウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>服の登録</t>
+    <rPh sb="0" eb="1">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録している服の編集</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録している服の削除</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>編集された新しい服をデータベースに再登録</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>サイトウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録されている服をデータベースから削除</t>
+    <rPh sb="7" eb="8">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>当日の天気と気温をデータベースに登録</t>
+    <rPh sb="16" eb="18">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>天気、気温表示</t>
+    <rPh sb="0" eb="2">
+      <t>テンキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キオン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録されたデータベースから天気、気温をメイン画面に表示</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>テンキ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>キオン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データベースから天気と気温の情報を取得し、その情報を基に条件を判定</t>
+    <rPh sb="8" eb="10">
+      <t>テンキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>キオン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>決定された服の種類を画面に表示</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロフィール画面にユーザー情報を表示</t>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IDとパスワードでログイン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自分の持っている服をデータベースに登録</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択された種類ごとに所持服を一覧で表示</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一日に自身が着ていく服をデータベースに登録</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コーディネート表示</t>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コーディネート削除</t>
+    <rPh sb="7" eb="9">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録したコーディネートをデータベースから取得して、表示する</t>
+    <rPh sb="20" eb="22">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録されているコーディネートをデータベースから削除</t>
+    <rPh sb="23" eb="25">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一覧表示</t>
+    <rPh sb="0" eb="2">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒョウジ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -820,26 +986,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:I36"/>
+  <dimension ref="B2:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="3.26953125" customWidth="1"/>
-    <col min="2" max="2" width="6.7265625" customWidth="1"/>
-    <col min="3" max="3" width="12.6328125" customWidth="1"/>
-    <col min="4" max="4" width="17.36328125" customWidth="1"/>
-    <col min="5" max="5" width="12.6328125" customWidth="1"/>
+    <col min="1" max="1" width="3.25" customWidth="1"/>
+    <col min="2" max="2" width="6.75" customWidth="1"/>
+    <col min="3" max="3" width="12.625" customWidth="1"/>
+    <col min="4" max="4" width="17.375" customWidth="1"/>
+    <col min="5" max="5" width="12.625" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
-    <col min="7" max="7" width="12.90625" customWidth="1"/>
-    <col min="8" max="8" width="33.90625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.90625" customWidth="1"/>
+    <col min="7" max="7" width="12.875" customWidth="1"/>
+    <col min="8" max="8" width="33.875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.15">
       <c r="E2" s="4" t="s">
         <v>0</v>
       </c>
@@ -848,11 +1012,11 @@
         <v>2</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I2" s="8"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.15">
       <c r="E3" s="4" t="s">
         <v>1</v>
       </c>
@@ -865,26 +1029,30 @@
       </c>
       <c r="I3" s="8"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.15">
       <c r="G4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="8"/>
+      <c r="H4" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="I4" s="8"/>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.15">
       <c r="G5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="8"/>
+      <c r="H5" s="8">
+        <v>607</v>
+      </c>
       <c r="I5" s="8"/>
     </row>
-    <row r="6" spans="2:9" ht="21" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:9" ht="21" x14ac:dyDescent="0.15">
       <c r="B6" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
@@ -910,7 +1078,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="26" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:9" ht="27" x14ac:dyDescent="0.15">
       <c r="B8" s="2">
         <v>1</v>
       </c>
@@ -926,13 +1094,13 @@
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="3" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B9" s="2">
         <v>2</v>
       </c>
@@ -948,13 +1116,13 @@
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="3" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" ht="26" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="27" x14ac:dyDescent="0.15">
       <c r="B10" s="2">
         <v>3</v>
       </c>
@@ -970,16 +1138,14 @@
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B11" s="2">
-        <v>4</v>
-      </c>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
         <v>15</v>
       </c>
@@ -988,20 +1154,18 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="3" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B12" s="2">
-        <v>5</v>
-      </c>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
         <v>15</v>
       </c>
@@ -1010,19 +1174,19 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" ht="26" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B13" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>15</v>
@@ -1032,41 +1196,41 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="3" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" ht="26" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B14" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="3" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" ht="26" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B15" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>15</v>
@@ -1076,20 +1240,18 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="3" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" ht="26" x14ac:dyDescent="0.2">
-      <c r="B16" s="2">
-        <v>9</v>
-      </c>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="B16" s="2"/>
       <c r="C16" s="2" t="s">
         <v>15</v>
       </c>
@@ -1098,153 +1260,171 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" ht="26" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B17" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" ht="26" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="27" x14ac:dyDescent="0.15">
       <c r="B18" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="3" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B19" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" ht="26" x14ac:dyDescent="0.2">
-      <c r="B20" s="2">
-        <v>13</v>
-      </c>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="B20" s="2"/>
       <c r="C20" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" ht="27" x14ac:dyDescent="0.15">
       <c r="B21" s="2">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="2"/>
+      <c r="D21" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
+      <c r="F21" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="G21" s="2"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="2"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="H21" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" ht="27" x14ac:dyDescent="0.15">
       <c r="B22" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="2"/>
+      <c r="D22" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
+      <c r="F22" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="G22" s="2"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="2"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="H22" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" ht="27" x14ac:dyDescent="0.15">
       <c r="B23" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="2"/>
+      <c r="D23" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
+      <c r="F23" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="G23" s="2"/>
-      <c r="H23" s="3"/>
+      <c r="H23" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B24" s="2">
-        <v>17</v>
-      </c>
-      <c r="C24" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -1252,13 +1432,11 @@
       <c r="H24" s="3"/>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B25" s="2">
-        <v>18</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>15</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
@@ -1266,13 +1444,11 @@
       <c r="H25" s="3"/>
       <c r="I25" s="2"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B26" s="2">
-        <v>19</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>15</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
@@ -1280,13 +1456,11 @@
       <c r="H26" s="3"/>
       <c r="I26" s="2"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B27" s="2">
-        <v>20</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>15</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
@@ -1294,9 +1468,9 @@
       <c r="H27" s="3"/>
       <c r="I27" s="2"/>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B28" s="2">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -1306,9 +1480,9 @@
       <c r="H28" s="3"/>
       <c r="I28" s="2"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B29" s="2">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -1318,9 +1492,9 @@
       <c r="H29" s="3"/>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B30" s="2">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -1330,9 +1504,9 @@
       <c r="H30" s="3"/>
       <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B31" s="2">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -1342,9 +1516,9 @@
       <c r="H31" s="3"/>
       <c r="I31" s="2"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B32" s="2">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -1354,9 +1528,9 @@
       <c r="H32" s="3"/>
       <c r="I32" s="2"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B33" s="2">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -1366,9 +1540,9 @@
       <c r="H33" s="3"/>
       <c r="I33" s="2"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B34" s="2">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -1378,9 +1552,9 @@
       <c r="H34" s="3"/>
       <c r="I34" s="2"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B35" s="2">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -1390,9 +1564,9 @@
       <c r="H35" s="3"/>
       <c r="I35" s="2"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B36" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -1401,6 +1575,30 @@
       <c r="G36" s="2"/>
       <c r="H36" s="3"/>
       <c r="I36" s="2"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B37" s="2">
+        <v>28</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="2"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B38" s="2">
+        <v>29</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1420,7 +1618,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1433,7 +1631,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/04_機能一覧_A型.xlsx
+++ b/doc/04_機能一覧_A型.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1FD7E18-C648-48CA-B347-FA321C8A57EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BD852D1-A519-4C86-A2F6-1643A300E8E2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="58">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -281,13 +281,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>松倉</t>
-    <rPh sb="0" eb="2">
-      <t>マツクラ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ユーザー情報表示</t>
     <rPh sb="4" eb="6">
       <t>ジョウホウ</t>
@@ -530,6 +523,20 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">松倉 </t>
+    <rPh sb="0" eb="2">
+      <t>マツクラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>藤澤</t>
+    <rPh sb="0" eb="2">
+      <t>フジサワ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -620,7 +627,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -646,6 +653,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -986,24 +1002,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:I38"/>
+  <dimension ref="B2:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7:I7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.25" customWidth="1"/>
-    <col min="2" max="2" width="6.75" customWidth="1"/>
-    <col min="3" max="3" width="12.625" customWidth="1"/>
-    <col min="4" max="4" width="17.375" customWidth="1"/>
-    <col min="5" max="5" width="12.625" customWidth="1"/>
+    <col min="1" max="1" width="3.26953125" customWidth="1"/>
+    <col min="2" max="2" width="6.7265625" customWidth="1"/>
+    <col min="3" max="3" width="12.6328125" customWidth="1"/>
+    <col min="4" max="4" width="17.36328125" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
-    <col min="7" max="7" width="12.875" customWidth="1"/>
-    <col min="8" max="8" width="33.875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.875" customWidth="1"/>
+    <col min="7" max="7" width="12.90625" customWidth="1"/>
+    <col min="8" max="8" width="33.90625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
       <c r="E2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1016,7 +1034,7 @@
       </c>
       <c r="I2" s="8"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
       <c r="E3" s="4" t="s">
         <v>1</v>
       </c>
@@ -1029,17 +1047,21 @@
       </c>
       <c r="I3" s="8"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="G4" s="4" t="s">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="E4" s="11"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="10" t="s">
         <v>4</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="I4" s="8"/>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="G5" s="4" t="s">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="E5" s="11"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="10" t="s">
         <v>5</v>
       </c>
       <c r="H5" s="8">
@@ -1047,125 +1069,103 @@
       </c>
       <c r="I5" s="8"/>
     </row>
-    <row r="6" spans="2:9" ht="21" x14ac:dyDescent="0.15">
-      <c r="B6" s="6" t="s">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="G6" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="I6" s="8"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="G7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="8">
+        <v>608</v>
+      </c>
+      <c r="I7" s="8"/>
+    </row>
+    <row r="8" spans="2:9" ht="21" x14ac:dyDescent="0.2">
+      <c r="B8" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B7" s="4" t="s">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I9" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="B8" s="2">
+    <row r="10" spans="2:9" ht="26" x14ac:dyDescent="0.2">
+      <c r="B10" s="2">
         <v>1</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B9" s="2">
-        <v>2</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="B10" s="2">
-        <v>3</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="3" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B11" s="2"/>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B11" s="2">
+        <v>2</v>
+      </c>
       <c r="C11" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="2:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="B12" s="2"/>
+    <row r="12" spans="2:9" ht="26" x14ac:dyDescent="0.2">
+      <c r="B12" s="2">
+        <v>3</v>
+      </c>
       <c r="C12" s="2" t="s">
         <v>15</v>
       </c>
@@ -1174,17 +1174,17 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:9" ht="26" x14ac:dyDescent="0.2">
       <c r="B13" s="2">
         <v>4</v>
       </c>
@@ -1196,17 +1196,17 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:9" ht="26" x14ac:dyDescent="0.2">
       <c r="B14" s="2">
         <v>5</v>
       </c>
@@ -1218,59 +1218,61 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="3" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B15" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="2:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="B16" s="2"/>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B16" s="2">
+        <v>7</v>
+      </c>
       <c r="C16" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="3" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:9" ht="26" x14ac:dyDescent="0.2">
       <c r="B17" s="2">
         <v>8</v>
       </c>
@@ -1282,81 +1284,83 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="3" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:9" ht="26" x14ac:dyDescent="0.2">
       <c r="B18" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="3" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:9" ht="26" x14ac:dyDescent="0.2">
       <c r="B19" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="B20" s="2"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" ht="26" x14ac:dyDescent="0.2">
+      <c r="B20" s="2">
+        <v>11</v>
+      </c>
       <c r="C20" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="3" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:9" ht="26" x14ac:dyDescent="0.2">
       <c r="B21" s="2">
         <v>12</v>
       </c>
@@ -1364,21 +1368,21 @@
         <v>15</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="3" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" ht="27" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" ht="26" x14ac:dyDescent="0.2">
       <c r="B22" s="2">
         <v>13</v>
       </c>
@@ -1386,21 +1390,21 @@
         <v>15</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="3" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="2:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:9" ht="26" x14ac:dyDescent="0.2">
       <c r="B23" s="2">
         <v>14</v>
       </c>
@@ -1412,39 +1416,61 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="I23" s="2"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" ht="26" x14ac:dyDescent="0.2">
       <c r="B24" s="2">
         <v>15</v>
       </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
+      <c r="C24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
+      <c r="F24" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="G24" s="2"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="2"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="H24" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" ht="26" x14ac:dyDescent="0.2">
       <c r="B25" s="2">
         <v>16</v>
       </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
+      <c r="C25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
+      <c r="F25" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="G25" s="2"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="2"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="H25" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B26" s="2">
         <v>17</v>
       </c>
@@ -1456,7 +1482,7 @@
       <c r="H26" s="3"/>
       <c r="I26" s="2"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B27" s="2">
         <v>18</v>
       </c>
@@ -1468,7 +1494,7 @@
       <c r="H27" s="3"/>
       <c r="I27" s="2"/>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B28" s="2">
         <v>19</v>
       </c>
@@ -1480,7 +1506,7 @@
       <c r="H28" s="3"/>
       <c r="I28" s="2"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B29" s="2">
         <v>20</v>
       </c>
@@ -1492,7 +1518,7 @@
       <c r="H29" s="3"/>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B30" s="2">
         <v>21</v>
       </c>
@@ -1504,7 +1530,7 @@
       <c r="H30" s="3"/>
       <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B31" s="2">
         <v>22</v>
       </c>
@@ -1516,7 +1542,7 @@
       <c r="H31" s="3"/>
       <c r="I31" s="2"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B32" s="2">
         <v>23</v>
       </c>
@@ -1528,7 +1554,7 @@
       <c r="H32" s="3"/>
       <c r="I32" s="2"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B33" s="2">
         <v>24</v>
       </c>
@@ -1540,7 +1566,7 @@
       <c r="H33" s="3"/>
       <c r="I33" s="2"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B34" s="2">
         <v>25</v>
       </c>
@@ -1552,7 +1578,7 @@
       <c r="H34" s="3"/>
       <c r="I34" s="2"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B35" s="2">
         <v>26</v>
       </c>
@@ -1564,7 +1590,7 @@
       <c r="H35" s="3"/>
       <c r="I35" s="2"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B36" s="2">
         <v>27</v>
       </c>
@@ -1576,7 +1602,7 @@
       <c r="H36" s="3"/>
       <c r="I36" s="2"/>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B37" s="2">
         <v>28</v>
       </c>
@@ -1588,7 +1614,7 @@
       <c r="H37" s="3"/>
       <c r="I37" s="2"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B38" s="2">
         <v>29</v>
       </c>
@@ -1600,15 +1626,54 @@
       <c r="H38" s="3"/>
       <c r="I38" s="2"/>
     </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B39" s="2">
+        <v>30</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="2"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B40" s="2">
+        <v>31</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="2"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B41" s="9"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B42" s="9"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B43" s="9"/>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B44" s="9"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="H5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1618,7 +1683,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1631,7 +1696,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/04_機能一覧_A型.xlsx
+++ b/doc/04_機能一覧_A型.xlsx
@@ -1,23 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1FD7E18-C648-48CA-B347-FA321C8A57EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E9E76F1-D737-493D-B343-AA65178CD03F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -988,22 +999,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.25" customWidth="1"/>
-    <col min="2" max="2" width="6.75" customWidth="1"/>
-    <col min="3" max="3" width="12.625" customWidth="1"/>
-    <col min="4" max="4" width="17.375" customWidth="1"/>
-    <col min="5" max="5" width="12.625" customWidth="1"/>
+    <col min="1" max="1" width="3.26953125" customWidth="1"/>
+    <col min="2" max="2" width="6.7265625" customWidth="1"/>
+    <col min="3" max="3" width="12.6328125" customWidth="1"/>
+    <col min="4" max="4" width="17.36328125" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
-    <col min="7" max="7" width="12.875" customWidth="1"/>
-    <col min="8" max="8" width="33.875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.875" customWidth="1"/>
+    <col min="7" max="7" width="12.90625" customWidth="1"/>
+    <col min="8" max="8" width="33.90625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
       <c r="E2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1016,7 +1029,7 @@
       </c>
       <c r="I2" s="8"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
       <c r="E3" s="4" t="s">
         <v>1</v>
       </c>
@@ -1029,7 +1042,7 @@
       </c>
       <c r="I3" s="8"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G4" s="4" t="s">
         <v>4</v>
       </c>
@@ -1038,7 +1051,7 @@
       </c>
       <c r="I4" s="8"/>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>5</v>
       </c>
@@ -1047,12 +1060,12 @@
       </c>
       <c r="I5" s="8"/>
     </row>
-    <row r="6" spans="2:9" ht="21" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:9" ht="21" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
@@ -1078,7 +1091,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:9" ht="26" x14ac:dyDescent="0.2">
       <c r="B8" s="2">
         <v>1</v>
       </c>
@@ -1100,7 +1113,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B9" s="2">
         <v>2</v>
       </c>
@@ -1122,7 +1135,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:9" ht="26" x14ac:dyDescent="0.2">
       <c r="B10" s="2">
         <v>3</v>
       </c>
@@ -1144,7 +1157,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:9" ht="26" x14ac:dyDescent="0.2">
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
         <v>15</v>
@@ -1164,7 +1177,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="2:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:9" ht="26" x14ac:dyDescent="0.2">
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
         <v>15</v>
@@ -1184,7 +1197,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B13" s="2">
         <v>4</v>
       </c>
@@ -1206,7 +1219,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B14" s="2">
         <v>5</v>
       </c>
@@ -1228,7 +1241,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:9" ht="26" x14ac:dyDescent="0.2">
       <c r="B15" s="2">
         <v>7</v>
       </c>
@@ -1250,7 +1263,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="2:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:9" ht="26" x14ac:dyDescent="0.2">
       <c r="B16" s="2"/>
       <c r="C16" s="2" t="s">
         <v>15</v>
@@ -1270,7 +1283,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:9" ht="26" x14ac:dyDescent="0.2">
       <c r="B17" s="2">
         <v>8</v>
       </c>
@@ -1292,7 +1305,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:9" ht="26" x14ac:dyDescent="0.2">
       <c r="B18" s="2">
         <v>10</v>
       </c>
@@ -1314,7 +1327,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:9" ht="26" x14ac:dyDescent="0.2">
       <c r="B19" s="2">
         <v>11</v>
       </c>
@@ -1336,7 +1349,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:9" ht="26" x14ac:dyDescent="0.2">
       <c r="B20" s="2"/>
       <c r="C20" s="2" t="s">
         <v>15</v>
@@ -1356,7 +1369,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:9" ht="26" x14ac:dyDescent="0.2">
       <c r="B21" s="2">
         <v>12</v>
       </c>
@@ -1378,7 +1391,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="2:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:9" ht="26" x14ac:dyDescent="0.2">
       <c r="B22" s="2">
         <v>13</v>
       </c>
@@ -1400,7 +1413,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="2:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:9" ht="26" x14ac:dyDescent="0.2">
       <c r="B23" s="2">
         <v>14</v>
       </c>
@@ -1420,7 +1433,7 @@
       </c>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B24" s="2">
         <v>15</v>
       </c>
@@ -1432,7 +1445,7 @@
       <c r="H24" s="3"/>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B25" s="2">
         <v>16</v>
       </c>
@@ -1444,7 +1457,7 @@
       <c r="H25" s="3"/>
       <c r="I25" s="2"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B26" s="2">
         <v>17</v>
       </c>
@@ -1456,7 +1469,7 @@
       <c r="H26" s="3"/>
       <c r="I26" s="2"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B27" s="2">
         <v>18</v>
       </c>
@@ -1468,7 +1481,7 @@
       <c r="H27" s="3"/>
       <c r="I27" s="2"/>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B28" s="2">
         <v>19</v>
       </c>
@@ -1480,7 +1493,7 @@
       <c r="H28" s="3"/>
       <c r="I28" s="2"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B29" s="2">
         <v>20</v>
       </c>
@@ -1492,7 +1505,7 @@
       <c r="H29" s="3"/>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B30" s="2">
         <v>21</v>
       </c>
@@ -1504,7 +1517,7 @@
       <c r="H30" s="3"/>
       <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B31" s="2">
         <v>22</v>
       </c>
@@ -1516,7 +1529,7 @@
       <c r="H31" s="3"/>
       <c r="I31" s="2"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B32" s="2">
         <v>23</v>
       </c>
@@ -1528,7 +1541,7 @@
       <c r="H32" s="3"/>
       <c r="I32" s="2"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B33" s="2">
         <v>24</v>
       </c>
@@ -1540,7 +1553,7 @@
       <c r="H33" s="3"/>
       <c r="I33" s="2"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B34" s="2">
         <v>25</v>
       </c>
@@ -1552,7 +1565,7 @@
       <c r="H34" s="3"/>
       <c r="I34" s="2"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B35" s="2">
         <v>26</v>
       </c>
@@ -1564,7 +1577,7 @@
       <c r="H35" s="3"/>
       <c r="I35" s="2"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B36" s="2">
         <v>27</v>
       </c>
@@ -1576,7 +1589,7 @@
       <c r="H36" s="3"/>
       <c r="I36" s="2"/>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B37" s="2">
         <v>28</v>
       </c>
@@ -1588,7 +1601,7 @@
       <c r="H37" s="3"/>
       <c r="I37" s="2"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B38" s="2">
         <v>29</v>
       </c>
@@ -1618,7 +1631,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1631,7 +1644,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/04_機能一覧_A型.xlsx
+++ b/doc/04_機能一覧_A型.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E9E76F1-D737-493D-B343-AA65178CD03F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A79E897-4D80-44C5-A937-8BED7889FD0D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -257,19 +257,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>天気、気温取得</t>
-    <rPh sb="0" eb="2">
-      <t>テンキ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>キオン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>シュトク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>コーディネート登録</t>
     <rPh sb="7" eb="9">
       <t>トウロク</t>
@@ -404,45 +391,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>当日の天気と気温をデータベースに登録</t>
-    <rPh sb="16" eb="18">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>天気、気温表示</t>
-    <rPh sb="0" eb="2">
-      <t>テンキ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>キオン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>登録されたデータベースから天気、気温をメイン画面に表示</t>
-    <rPh sb="0" eb="2">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>テンキ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>キオン</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>データベースから天気と気温の情報を取得し、その情報を基に条件を判定</t>
     <rPh sb="8" eb="10">
       <t>テンキ</t>
@@ -540,6 +488,70 @@
       <t>イチラン</t>
     </rPh>
     <rPh sb="2" eb="4">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日付,天気、気温取得</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>テンキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キオン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日付,天気、気温表示</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>テンキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キオン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>当日の日付と天気と気温をデータベースに登録</t>
+    <rPh sb="3" eb="5">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録されたデータベースから日付,天気、気温をメイン画面に表示</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>テンキ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>キオン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
       <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -999,8 +1011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1025,7 +1037,7 @@
         <v>2</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I2" s="8"/>
     </row>
@@ -1047,7 +1059,7 @@
         <v>4</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I4" s="8"/>
     </row>
@@ -1107,10 +1119,10 @@
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.2">
@@ -1129,10 +1141,10 @@
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="26" x14ac:dyDescent="0.2">
@@ -1151,10 +1163,10 @@
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="26" x14ac:dyDescent="0.2">
@@ -1167,14 +1179,14 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="26" x14ac:dyDescent="0.2">
@@ -1187,14 +1199,14 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.2">
@@ -1213,10 +1225,10 @@
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.2">
@@ -1238,7 +1250,7 @@
         <v>26</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="26" x14ac:dyDescent="0.2">
@@ -1253,14 +1265,14 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="2:9" ht="26" x14ac:dyDescent="0.2">
@@ -1273,14 +1285,14 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="2:9" ht="26" x14ac:dyDescent="0.2">
@@ -1295,14 +1307,14 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="2:9" ht="26" x14ac:dyDescent="0.2">
@@ -1317,14 +1329,14 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="26" x14ac:dyDescent="0.2">
@@ -1339,14 +1351,14 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="3" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="26" x14ac:dyDescent="0.2">
@@ -1359,14 +1371,14 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="3" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="26" x14ac:dyDescent="0.2">
@@ -1381,14 +1393,14 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="2:9" ht="26" x14ac:dyDescent="0.2">
@@ -1403,14 +1415,14 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="2:9" ht="26" x14ac:dyDescent="0.2">
@@ -1425,11 +1437,11 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I23" s="2"/>
     </row>

--- a/doc/04_機能一覧_A型.xlsx
+++ b/doc/04_機能一覧_A型.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1FD7E18-C648-48CA-B347-FA321C8A57EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F94B1C69-4E6A-496B-9084-0E0C94386252}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="61">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -529,6 +529,55 @@
       <t>イチラン</t>
     </rPh>
     <rPh sb="2" eb="4">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>藤澤</t>
+    <rPh sb="0" eb="2">
+      <t>フジサワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コーディネート検索</t>
+    <rPh sb="7" eb="9">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録したコーディネートを日付か気温の条件にあった検索をする</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>キオン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上記で検索した結果を表示する</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
       <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -620,7 +669,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -643,6 +692,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -986,24 +1038,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:I38"/>
+  <dimension ref="B2:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.25" customWidth="1"/>
-    <col min="2" max="2" width="6.75" customWidth="1"/>
-    <col min="3" max="3" width="12.625" customWidth="1"/>
-    <col min="4" max="4" width="17.375" customWidth="1"/>
-    <col min="5" max="5" width="12.625" customWidth="1"/>
+    <col min="1" max="1" width="3.26953125" customWidth="1"/>
+    <col min="2" max="2" width="6.7265625" customWidth="1"/>
+    <col min="3" max="3" width="12.6328125" customWidth="1"/>
+    <col min="4" max="4" width="17.36328125" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
-    <col min="7" max="7" width="12.875" customWidth="1"/>
-    <col min="8" max="8" width="33.875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.875" customWidth="1"/>
+    <col min="7" max="7" width="12.90625" customWidth="1"/>
+    <col min="8" max="8" width="33.90625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
       <c r="E2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1011,12 +1065,12 @@
       <c r="G2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="8"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="I2" s="9"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
       <c r="E3" s="4" t="s">
         <v>1</v>
       </c>
@@ -1024,148 +1078,128 @@
       <c r="G3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="9">
         <v>607</v>
       </c>
-      <c r="I3" s="8"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="I3" s="9"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="E4" s="8"/>
       <c r="G4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="8"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="E5" s="8"/>
       <c r="G5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="2"/>
+      <c r="I5" s="2">
         <v>607</v>
       </c>
-      <c r="I5" s="8"/>
-    </row>
-    <row r="6" spans="2:9" ht="21" x14ac:dyDescent="0.15">
-      <c r="B6" s="6" t="s">
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="G6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I6" s="9"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="G7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="9">
+        <v>613</v>
+      </c>
+      <c r="I7" s="9"/>
+    </row>
+    <row r="8" spans="2:9" ht="21" x14ac:dyDescent="0.2">
+      <c r="B8" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B7" s="4" t="s">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I9" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="B8" s="2">
+    <row r="10" spans="2:9" ht="26" x14ac:dyDescent="0.2">
+      <c r="B10" s="2">
         <v>1</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="2" t="s">
+      <c r="C10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B9" s="2">
-        <v>2</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="B10" s="2">
-        <v>3</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="3" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B11" s="2"/>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B11" s="2">
+        <v>2</v>
+      </c>
       <c r="C11" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="2:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="B12" s="2"/>
+    <row r="12" spans="2:9" ht="26" x14ac:dyDescent="0.2">
+      <c r="B12" s="2">
+        <v>3</v>
+      </c>
       <c r="C12" s="2" t="s">
         <v>15</v>
       </c>
@@ -1174,17 +1208,17 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:9" ht="26" x14ac:dyDescent="0.2">
       <c r="B13" s="2">
         <v>4</v>
       </c>
@@ -1196,17 +1230,17 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:9" ht="26" x14ac:dyDescent="0.2">
       <c r="B14" s="2">
         <v>5</v>
       </c>
@@ -1218,59 +1252,61 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="3" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B15" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="2:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="B16" s="2"/>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B16" s="2">
+        <v>7</v>
+      </c>
       <c r="C16" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="3" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:9" ht="26" x14ac:dyDescent="0.2">
       <c r="B17" s="2">
         <v>8</v>
       </c>
@@ -1282,81 +1318,83 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="3" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:9" ht="26" x14ac:dyDescent="0.2">
       <c r="B18" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="3" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:9" ht="26" x14ac:dyDescent="0.2">
       <c r="B19" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="B20" s="2"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" ht="26" x14ac:dyDescent="0.2">
+      <c r="B20" s="2">
+        <v>11</v>
+      </c>
       <c r="C20" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="3" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:9" ht="26" x14ac:dyDescent="0.2">
       <c r="B21" s="2">
         <v>12</v>
       </c>
@@ -1364,21 +1402,21 @@
         <v>15</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="3" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" ht="27" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" ht="26" x14ac:dyDescent="0.2">
       <c r="B22" s="2">
         <v>13</v>
       </c>
@@ -1386,21 +1424,21 @@
         <v>15</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="3" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="2:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:9" ht="26" x14ac:dyDescent="0.2">
       <c r="B23" s="2">
         <v>14</v>
       </c>
@@ -1412,63 +1450,105 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="I23" s="2"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.15">
+        <v>51</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" ht="26" x14ac:dyDescent="0.2">
       <c r="B24" s="2">
         <v>15</v>
       </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
+      <c r="C24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
+      <c r="F24" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="G24" s="2"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="2"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="H24" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" ht="26" x14ac:dyDescent="0.2">
       <c r="B25" s="2">
         <v>16</v>
       </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
+      <c r="C25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
+      <c r="F25" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="G25" s="2"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="2"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="H25" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" ht="26" x14ac:dyDescent="0.2">
       <c r="B26" s="2">
         <v>17</v>
       </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
+      <c r="C26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
+      <c r="F26" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="G26" s="2"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="2"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="H26" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B27" s="2">
         <v>18</v>
       </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
+      <c r="C27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
+      <c r="F27" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="G27" s="2"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="2"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="H27" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B28" s="2">
         <v>19</v>
       </c>
@@ -1480,7 +1560,7 @@
       <c r="H28" s="3"/>
       <c r="I28" s="2"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B29" s="2">
         <v>20</v>
       </c>
@@ -1492,7 +1572,7 @@
       <c r="H29" s="3"/>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B30" s="2">
         <v>21</v>
       </c>
@@ -1504,7 +1584,7 @@
       <c r="H30" s="3"/>
       <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B31" s="2">
         <v>22</v>
       </c>
@@ -1516,7 +1596,7 @@
       <c r="H31" s="3"/>
       <c r="I31" s="2"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B32" s="2">
         <v>23</v>
       </c>
@@ -1528,7 +1608,7 @@
       <c r="H32" s="3"/>
       <c r="I32" s="2"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B33" s="2">
         <v>24</v>
       </c>
@@ -1540,7 +1620,7 @@
       <c r="H33" s="3"/>
       <c r="I33" s="2"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B34" s="2">
         <v>25</v>
       </c>
@@ -1552,7 +1632,7 @@
       <c r="H34" s="3"/>
       <c r="I34" s="2"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B35" s="2">
         <v>26</v>
       </c>
@@ -1564,7 +1644,7 @@
       <c r="H35" s="3"/>
       <c r="I35" s="2"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B36" s="2">
         <v>27</v>
       </c>
@@ -1576,7 +1656,7 @@
       <c r="H36" s="3"/>
       <c r="I36" s="2"/>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B37" s="2">
         <v>28</v>
       </c>
@@ -1588,7 +1668,7 @@
       <c r="H37" s="3"/>
       <c r="I37" s="2"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B38" s="2">
         <v>29</v>
       </c>
@@ -1600,15 +1680,40 @@
       <c r="H38" s="3"/>
       <c r="I38" s="2"/>
     </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B39" s="2">
+        <v>30</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="2"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B40" s="2">
+        <v>31</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1618,7 +1723,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1631,7 +1736,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
